--- a/DateBase/orders/Dang Nguyen_2024-12-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-11.xlsx
@@ -780,6 +780,9 @@
       <c r="G2" t="str">
         <v>025401022104228282881416121330161441012121512151025512885</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
